--- a/biology/Zoologie/Cyclocystoidea/Cyclocystoidea.xlsx
+++ b/biology/Zoologie/Cyclocystoidea/Cyclocystoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclocystoïdes
 Les Cyclocystoidea (cyclocystoïdes en français) sont une classe d'échinodermes du Paléozoïque, connus uniquement sous forme fossile (Ordovicien-Dévonien, 471,8 - 379,5 Ma).
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe des Cyclocystoidea a été créée en 1895 par les paléontologues américains Samuel Almond Miller (d) (1837-1897) et William Frank Eugene Gurley (d) (1854-1943)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe des Cyclocystoidea a été créée en 1895 par les paléontologues américains Samuel Almond Miller (d) (1837-1897) et William Frank Eugene Gurley (d) (1854-1943),.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cyclocystoidea se présentent sous la forme de petits disques arrondis composé de plaques imbriquées, et encerclés par un anneau marginal rigide, composé de grosses plaques en relief marqué et visiblement séparées (sans doute articulées), lui-même entouré d'une « jupe » flexible. La face inférieure du disque porte cinq rayons buccaux se rejoignant au centre (où se trouve la bouche) et probablement bordés de podia flexibles ; ils peuvent être ramifiés ou pas. La face supérieure est protégée par des plaques calcaires polygonales, portant cinq perforations centrales, entourant l'anus[3].
-Écologie et comportement
-On sait encore peu de choses sur la biologie de ce groupe. Ils semblaient capables de se déplacer et étaient probablement microphages[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cyclocystoidea se présentent sous la forme de petits disques arrondis composé de plaques imbriquées, et encerclés par un anneau marginal rigide, composé de grosses plaques en relief marqué et visiblement séparées (sans doute articulées), lui-même entouré d'une « jupe » flexible. La face inférieure du disque porte cinq rayons buccaux se rejoignant au centre (où se trouve la bouche) et probablement bordés de podia flexibles ; ils peuvent être ramifiés ou pas. La face supérieure est protégée par des plaques calcaires polygonales, portant cinq perforations centrales, entourant l'anus.
 </t>
         </is>
       </c>
@@ -573,12 +587,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Registre fossile</t>
+          <t>Description et caractéristiques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les fossiles classés dans ce groupe apparaissent au début de l'Ordovicien moyen (-471,8 Ma -millions d'années-) en Amérique et disparaissent au milieu du Dévonien (-379,5 Ma) en Europe[3].
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On sait encore peu de choses sur la biologie de ce groupe. Ils semblaient capables de se déplacer et étaient probablement microphages.
 </t>
         </is>
       </c>
@@ -604,12 +624,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phylogénie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré leur ressemblance superficielle avec les Edrioasteroidea, les Cyclocystoidea sont souvent considérés comme faisant partie du sous-embranchement des Echinozoa (avec les oursins).
+          <t>Registre fossile</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles classés dans ce groupe apparaissent au début de l'Ordovicien moyen (-471,8 Ma -millions d'années-) en Amérique et disparaissent au milieu du Dévonien (-379,5 Ma) en Europe.
 </t>
         </is>
       </c>
@@ -635,12 +657,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré leur ressemblance superficielle avec les Edrioasteroidea, les Cyclocystoidea sont souvent considérés comme faisant partie du sous-embranchement des Echinozoa (avec les oursins).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyclocystoidea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyclocystoidea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (13 juin 2022)[1] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (13 juin 2022) :
 † famille des Apycnodiscidae Boczarowski, 2001
 † famille des Cyclocystoididae Miller, 1882
 † famille des Moroccodiscidae Reich et al., 2017
@@ -656,31 +713,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cyclocystoidea</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cyclocystoidea</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) S. A. Miller et Wm. F. E. Gurley, « Description of New Species of Palaeozoic Echinodermata », Bulletin of the Illinois State Museum of Natural History, Springfield, The Illinois State Museum, vol. 6,‎ 5 avril 1895, p. 1-62 (ISSN 0885-0410, OCLC 1752624, lire en ligne)</t>
         </is>
